--- a/2022_09_12_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AJX COMERCIO LTDA</t>
+          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09132-9</t>
+          <t xml:space="preserve"> 3.06485-0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WATER CLOR MULTI</t>
+          <t xml:space="preserve"> ALPHA DESINCRUST</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -534,6 +534,46 @@
           <t xml:space="preserve"> ALPHA DESINCRUST</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.174264/2021-82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6485.0026.001-9</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÚNICA + FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -564,7 +604,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6485.0026.001-9</t>
+          <t xml:space="preserve"> 3.6485.0026.002-7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -579,7 +619,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -607,17 +647,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06485-0</t>
+          <t xml:space="preserve"> 3.02109-6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALPHA DESINCRUST</t>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -627,7 +667,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6485.0026.002-7</t>
+          <t xml:space="preserve"> 3.6485.0026.003-5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -642,7 +682,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + GALAO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -670,27 +710,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06485-0</t>
+          <t xml:space="preserve"> 3.02109-6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALPHA DESINCRUST</t>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.174264/2021-82</t>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6485.0026.003-5</t>
+          <t xml:space="preserve"> 3.2109.0046.001-2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -705,7 +745,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÚNICA + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> SUPERAÇÃO + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -715,7 +755,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -746,6 +786,46 @@
           <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.891672/2021-01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2109.0046.002-0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUPERAÇÃO + SACHET + SACO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -776,7 +856,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.001-2</t>
+          <t xml:space="preserve"> 3.2109.0046.003-9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -791,7 +871,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPERAÇÃO + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SUPERAÇÃO + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -839,7 +919,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.002-0</t>
+          <t xml:space="preserve"> 3.2109.0046.004-7</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -854,7 +934,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPERAÇÃO + SACHET + SACO PLASTICO</t>
+          <t xml:space="preserve"> LAVANDA + SACHET + SACO PLASTICO</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -902,7 +982,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.003-9</t>
+          <t xml:space="preserve"> 3.2109.0046.005-5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -917,7 +997,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUPERAÇÃO + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -965,7 +1045,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.004-7</t>
+          <t xml:space="preserve"> 3.2109.0046.006-3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -980,7 +1060,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + SACHET + SACO PLASTICO</t>
+          <t xml:space="preserve"> LAVANDA + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1028,7 +1108,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.005-5</t>
+          <t xml:space="preserve"> 3.2109.0046.007-1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1043,7 +1123,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> COCO + SACHET + SACO PLASTICO</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1091,7 +1171,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.006-3</t>
+          <t xml:space="preserve"> 3.2109.0046.008-1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1106,7 +1186,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> COCO + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1134,17 +1214,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02109-6</t>
+          <t xml:space="preserve"> 3.10109-1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+          <t xml:space="preserve"> MAXIFORM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1154,7 +1234,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.007-1</t>
+          <t xml:space="preserve"> 3.2109.0046.009-8</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1169,7 +1249,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COCO + SACHET + SACO PLASTICO</t>
+          <t xml:space="preserve"> COCO + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1197,27 +1277,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02109-6</t>
+          <t xml:space="preserve"> 3.10109-1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+          <t xml:space="preserve"> MAXIFORM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.891672/2021-01</t>
+          <t xml:space="preserve"> 25351.897504/2021-11</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.008-1</t>
+          <t xml:space="preserve"> 3.0109.0002.001-1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1232,7 +1312,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COCO + SACHET + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ALGODÃO + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1242,7 +1322,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1260,27 +1340,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02109-6</t>
+          <t xml:space="preserve"> 3.10109-1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+          <t xml:space="preserve"> MAXIFORM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.891672/2021-01</t>
+          <t xml:space="preserve"> 25351.897504/2021-11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2109.0046.009-8</t>
+          <t xml:space="preserve"> 3.0109.0002.002-8</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1295,7 +1375,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> COCO + CAIXA PAPEL CARTAO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LAVANDA + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1305,7 +1385,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222047 SANITIZANTE PARA TECIDOS E ROUPAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1323,17 +1403,57 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10109-1</t>
+          <t xml:space="preserve"> 3.01635-6</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXIFORM</t>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897504/2021-11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0109.0002.003-6</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAMBOO + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1346,27 +1466,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10109-1</t>
+          <t xml:space="preserve"> 3.01635-6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXIFORM</t>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897504/2021-11</t>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0109.0002.001-1</t>
+          <t xml:space="preserve"> 3.1635.0003.001-5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1381,17 +1501,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALGODÃO + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1409,27 +1529,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10109-1</t>
+          <t xml:space="preserve"> 3.01635-6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXIFORM</t>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897504/2021-11</t>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0109.0002.002-8</t>
+          <t xml:space="preserve"> 3.1635.0003.002-3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1444,17 +1564,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> MARINE + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1472,27 +1592,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10109-1</t>
+          <t xml:space="preserve"> 3.01635-6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXIFORM</t>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897504/2021-11</t>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0109.0002.003-6</t>
+          <t xml:space="preserve"> 3.1635.0003.003-1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1507,17 +1627,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BAMBOO + LATA AEROSSOL + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> TUTTI FRUTTI + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1535,17 +1655,57 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01635-6</t>
+          <t xml:space="preserve"> 3.01606-6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.711272/2021-12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1635.0003.004-1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAMBU + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1558,57 +1718,57 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01635-6</t>
+          <t xml:space="preserve"> 3.01606-6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711272/2021-12</t>
+          <t xml:space="preserve"> 25351.135234/2007-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1635.0003.001-5</t>
+          <t xml:space="preserve"> 3.1606.0081.001-8</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 07/2027</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+          <t xml:space="preserve"> LATA AEROSSOL</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1621,57 +1781,57 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+          <t xml:space="preserve"> BIOCLEAN - COMÉRCIO E INDÚSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01635-6</t>
+          <t xml:space="preserve"> 3.04186-4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+          <t xml:space="preserve"> Alcaclean</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711272/2021-12</t>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1635.0003.002-3</t>
+          <t xml:space="preserve"> 3.1606.0090.003-3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2028</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MARINE + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+          <t xml:space="preserve"> SACO</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1684,32 +1844,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+          <t xml:space="preserve"> Biomaxx Industria e comercio Ltda</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01635-6</t>
+          <t xml:space="preserve"> 3.09382-2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+          <t xml:space="preserve"> Detergente clorado gel Klean Clor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711272/2021-12</t>
+          <t xml:space="preserve"> 25351.879027/2021-10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1635.0003.003-1</t>
+          <t xml:space="preserve"> 3.4186.0020.001-3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1719,7 +1879,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TUTTI FRUTTI + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+          <t xml:space="preserve"> Alcaclean + BOMBONA PLASTICA + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1729,7 +1889,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1747,32 +1907,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01635-6</t>
+          <t xml:space="preserve"> 3.10511-8</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711272/2021-12</t>
+          <t xml:space="preserve"> 25351.174269/2021-13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1635.0003.004-1</t>
+          <t xml:space="preserve"> 3.9382.0006.001-6</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1782,17 +1942,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BAMBU + FILME DE POLIPROPILENO + CAIXA DE CARTOLINA</t>
+          <t xml:space="preserve"> Detergente clorado gel Klean Clor + BOMBONA PLASTICA OPACA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103021 DESODORIZANTE PARA APARELHOS SANITÁRIOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1810,17 +1970,57 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01606-6</t>
+          <t xml:space="preserve"> 3.10511-8</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0511.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1833,27 +2033,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01606-6</t>
+          <t xml:space="preserve"> 3.10511-8</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.135234/2007-01</t>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1606.0081.001-8</t>
+          <t xml:space="preserve"> 3.0511.0001.002-5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1863,27 +2063,27 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2027</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LATA AEROSSOL</t>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1896,27 +2096,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
+          <t xml:space="preserve"> BRAZIL QUÍMICA - INDUSTRIA QUÍMICA LTDA.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01606-6</t>
+          <t xml:space="preserve"> 3.02856-6</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+          <t xml:space="preserve"> EXTERMINEITOR BLOCO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.171789/2013-74</t>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1606.0090.003-3</t>
+          <t xml:space="preserve"> 3.0511.0001.003-3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1926,27 +2126,27 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2028</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1959,17 +2159,57 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOCLEAN - COMÉRCIO E INDÚSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> CALLAMARYS INDUSTRIA E COMERCIO DE COSMETICOS E SANEANTES LTDA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04186-4</t>
+          <t xml:space="preserve"> 3.05881-1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alcaclean</t>
+          <t xml:space="preserve"> ÁLCOOL TUPI 70° INPM</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.879141/2021-31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2856.0035.001-9</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -1982,57 +2222,57 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOCLEAN - COMÉRCIO E INDÚSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04186-4</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alcaclean</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.879027/2021-10</t>
+          <t xml:space="preserve"> 25351.541605/2014-28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4186.0020.001-3</t>
+          <t xml:space="preserve"> 3.5881.0001.005-0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 11/2029</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alcaclean + BOMBONA PLASTICA + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO PLASTICO TRANSLUCIDO 500ML+CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2045,17 +2285,57 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomaxx Industria e comercio Ltda</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09382-2</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Detergente clorado gel Klean Clor</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.001-4</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 KG + SACO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2068,32 +2348,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomaxx Industria e comercio Ltda</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09382-2</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Detergente clorado gel Klean Clor</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.174269/2021-13</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9382.0006.001-6</t>
+          <t xml:space="preserve"> 3.9286.0013.002-2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2103,17 +2383,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Detergente clorado gel Klean Clor + BOMBONA PLASTICA OPACA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> 7 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2131,17 +2411,57 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.9286.0013.003-0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2154,32 +2474,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885128/2021-11</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0511.0001.001-7</t>
+          <t xml:space="preserve"> 3.9286.0013.004-9</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2189,17 +2509,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> 40 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2217,32 +2537,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885128/2021-11</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0511.0001.002-5</t>
+          <t xml:space="preserve"> 3.9286.0013.005-7</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2252,17 +2572,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> 45 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2280,32 +2600,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.05520-3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885128/2021-11</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0511.0001.003-3</t>
+          <t xml:space="preserve"> 3.9286.0013.006-5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2315,17 +2635,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> 50 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2343,17 +2663,57 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZIL QUÍMICA - INDUSTRIA QUÍMICA LTDA.</t>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02856-6</t>
+          <t xml:space="preserve"> 3.05520-3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXTERMINEITOR BLOCO</t>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5520.0005.001-7</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2030</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2366,57 +2726,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZIL QUÍMICA - INDUSTRIA QUÍMICA LTDA.</t>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02856-6</t>
+          <t xml:space="preserve"> 3.05520-3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXTERMINEITOR BLOCO</t>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.879141/2021-31</t>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2856.0035.001-9</t>
+          <t xml:space="preserve"> 3.5520.0005.002-5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2030</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2429,17 +2789,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CALLAMARYS INDUSTRIA E COMERCIO DE COSMETICOS E SANEANTES LTDA</t>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05881-1</t>
+          <t xml:space="preserve"> 3.02661-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL TUPI 70° INPM</t>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5520.0005.003-3</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2030</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2852,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CALLAMARYS INDUSTRIA E COMERCIO DE COSMETICOS E SANEANTES LTDA</t>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05881-1</t>
+          <t xml:space="preserve"> 3.02661-1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL TUPI 70° INPM</t>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.541605/2014-28</t>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5881.0001.005-0</t>
+          <t xml:space="preserve"> 3.2661.0303.001-1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2482,12 +2882,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2029</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLASTICO TRANSLUCIDO 500ML+CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2497,12 +2897,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2515,17 +2915,57 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.02661-1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.2661.0303.002-8</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2538,32 +2978,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> EUROMARKET COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.02216-5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> SANI-CLOTH HB PDI</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.001-4</t>
+          <t xml:space="preserve"> 3.2661.0303.003-6</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2573,7 +3013,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 KG + SACO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> Versão única + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2583,7 +3023,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2601,57 +3041,53 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.021856/00-51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.002-2</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2216.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 11/2005</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ENVELOPE DE ALUMINIO E POLIETILENO</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 36 Meses</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -2664,27 +3100,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.003-0</t>
+          <t xml:space="preserve"> 3.3964.0006.001-9</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2699,17 +3135,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2727,27 +3163,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.004-9</t>
+          <t xml:space="preserve"> 3.3964.0006.002-7</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2762,17 +3198,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2790,27 +3226,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.005-7</t>
+          <t xml:space="preserve"> 3.3964.0006.003-5</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2825,17 +3261,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2853,27 +3289,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.006-5</t>
+          <t xml:space="preserve"> 3.3964.0006.004-3</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2888,17 +3324,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -2916,17 +3352,57 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3964.0006.005-1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2939,42 +3415,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111595/2020-21</t>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5520.0005.001-7</t>
+          <t xml:space="preserve"> 3.4020.0041.001-0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> HIG DRY WIPES + POTE DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2984,12 +3460,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3002,42 +3478,42 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111595/2020-21</t>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5520.0005.002-5</t>
+          <t xml:space="preserve"> 3.4020.0041.002-9</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3047,12 +3523,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3065,42 +3541,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.06960-0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> TOP LAV CLOR</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111595/2020-21</t>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5520.0005.003-3</t>
+          <t xml:space="preserve"> 3.4020.0041.003-7</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3110,12 +3586,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3128,17 +3604,57 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.04309-0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> IDEALCLOR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.023264/2019-09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.6960.0011.001-8</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 05/2024</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3151,27 +3667,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.04309-0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> IDEALCLOR</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922891/2021-31</t>
+          <t xml:space="preserve"> 25351.711489/2021-22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2661.0303.001-1</t>
+          <t xml:space="preserve"> 3.4309.0009.001-8</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3186,17 +3702,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3214,27 +3730,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.00415-1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> TEXSPAR PL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922891/2021-31</t>
+          <t xml:space="preserve"> 25351.711489/2021-22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2661.0303.002-8</t>
+          <t xml:space="preserve"> 3.4309.0009.002-6</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3249,17 +3765,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3277,27 +3793,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.00415-1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> TEXSPAR PL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922891/2021-31</t>
+          <t xml:space="preserve"> 25351.244658/2010-01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2661.0303.003-6</t>
+          <t xml:space="preserve"> 3.0415.0200.001-9</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3307,12 +3823,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 08/2025</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Versão única + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BALDE PLASTICO</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3322,12 +3838,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3340,17 +3856,53 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUROMARKET COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP</t>
+          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02216-5</t>
+          <t xml:space="preserve"> 3.03581-1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SANI-CLOTH HB PDI</t>
+          <t xml:space="preserve"> DECAPAN LM 220 SUPER</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.397586/2013-17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0415.0213.002-8</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09/2028</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + BANDEJA DE PAPELAO COM INVOLUCRO PLASTICO</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3363,53 +3915,57 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUROMARKET COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP</t>
+          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02216-5</t>
+          <t xml:space="preserve"> 3.00388-7</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SANI-CLOTH HB PDI</t>
+          <t xml:space="preserve"> INDAGARD HLD</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.021856/00-51</t>
+          <t xml:space="preserve"> 25351.416124/2020-14</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2216.0001.001-7</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t xml:space="preserve"> 3.3581.0042.001-7</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2005</t>
+          <t xml:space="preserve"> 11/2030</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENVELOPE DE ALUMINIO E POLIETILENO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103055 DETERGENTE LIMPA PISOS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -3422,17 +3978,53 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.00388-7</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> INDAGARD HLD</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.767623/2014-52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0388.0054.001-1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2025</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -3445,57 +4037,53 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.02781-6</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> FORMICIDA - FORMI HOUSE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.767623/2014-52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.001-9</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0388.0054.002-1</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 03/2025</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -3508,57 +4096,53 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.05685-4</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> BIFENTHRINE SPRAY</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.663046/2014-34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.002-7</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2781.0051.001-4</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 12/2029</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SERINGA DOSADORA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -3571,27 +4155,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.04549-9</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> ACQUA GENERA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.365890/2017-86</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.003-5</t>
+          <t xml:space="preserve"> 3.5685.0026.001-7</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3601,27 +4185,27 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 08/2027</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA PAPEL CARTAO</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3634,57 +4218,57 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.654248/2019-54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.004-3</t>
+          <t xml:space="preserve"> 3.4549.0014.001-2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 01/2030</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 2 Meses</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3697,27 +4281,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.121046/2007-97</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.005-1</t>
+          <t xml:space="preserve"> 3.1282.0303.001-2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3727,17 +4311,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 07/2027</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3747,7 +4331,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3760,17 +4344,57 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.02183-0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1282.0059.003-3</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2029</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -3783,57 +4407,53 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.02183-0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190825/2021-91</t>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0041.001-0</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2183.0025.001-2</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES + POTE DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -3846,57 +4466,53 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.02183-0</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190825/2021-91</t>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0041.002-9</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2183.0025.002-0</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -3909,57 +4525,48 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190825/2021-91</t>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0041.003-7</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALÃO PLÁSTICO + FILME PLÁSTICO</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -3972,17 +4579,53 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06960-0</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOP LAV CLOR</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1540.0027.001-8</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2026</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3995,42 +4638,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06960-0</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOP LAV CLOR</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023264/2019-09</t>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6960.0011.001-8</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.1540.0027.002-6</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2024</t>
+          <t xml:space="preserve"> 06/2026</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4040,7 +4679,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4058,17 +4697,53 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04309-0</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEALCLOR</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.1540.0027.003-4</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2026</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4081,57 +4756,53 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+          <t xml:space="preserve"> MACKERDUZ INDUSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04309-0</t>
+          <t xml:space="preserve"> 3.02769-6</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEALCLOR</t>
+          <t xml:space="preserve"> TIRA MOFO E LIMO - ESFRE BOM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711489/2021-22</t>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4309.0009.001-8</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.1540.0027.004-2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2026</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO (PET) +CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 06 Meses</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4144,57 +4815,57 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04309-0</t>
+          <t xml:space="preserve"> 3.04479-7</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEALCLOR</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711489/2021-22</t>
+          <t xml:space="preserve"> 25351.291663/2018-10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4309.0009.002-6</t>
+          <t xml:space="preserve"> 3.2769.0010.001-9</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 11/2028</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -4207,17 +4878,57 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00415-1</t>
+          <t xml:space="preserve"> 3.04479-7</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEXSPAR PL</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4479.0006.001-6</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS SUPER + FRASCO + FILME PLASTICO</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4230,27 +4941,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00415-1</t>
+          <t xml:space="preserve"> 3.04479-7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEXSPAR PL</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.244658/2010-01</t>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0415.0200.001-9</t>
+          <t xml:space="preserve"> 3.4479.0006.002-4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4260,12 +4971,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2025</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE PLASTICO</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS STONE + FRASCO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4275,12 +4986,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4293,38 +5004,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> NEW CLEAN IND. E COM. DE PRODUTOS DE HIGIENE E LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00415-1</t>
+          <t xml:space="preserve"> 3.03867-1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEXSPAR PL</t>
+          <t xml:space="preserve"> PREMIUM CLOR ALVEJANTE/DESINFETANTE PÓ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.397586/2013-17</t>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0415.0213.002-8</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t xml:space="preserve"> 3.4479.0006.003-2</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09/2028</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + BANDEJA DE PAPELAO COM INVOLUCRO PLASTICO</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS + FRASCO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4334,12 +5049,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4352,17 +5067,57 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
+          <t xml:space="preserve"> Oleak Indústria e Comércio Ltda</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03581-1</t>
+          <t xml:space="preserve"> 3.01003-2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DECAPAN LM 220 SUPER</t>
+          <t xml:space="preserve"> SCOTT HIGIENIZADOR DE ASSENTOS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.885106/2021-51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3867.0012.001-1</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> . + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Meses</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4375,57 +5130,57 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03581-1</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DECAPAN LM 220 SUPER</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.416124/2020-14</t>
+          <t xml:space="preserve"> 25351.584880/2012-91</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3581.0042.001-7</t>
+          <t xml:space="preserve"> 3.1003.0099.001-7</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2030</t>
+          <t xml:space="preserve"> 07/2028</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> SACO PLASTICO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103055 DETERGENTE LIMPA PISOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4438,17 +5193,57 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00388-7</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDAGARD HLD</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.465788/2020-07</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0005.001-6</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4461,48 +5256,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00388-7</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDAGARD HLD</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.767623/2014-52</t>
+          <t xml:space="preserve"> 25351.465788/2020-07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0388.0054.001-1</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t xml:space="preserve"> 3.8029.0005.002-4</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2025</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -4520,38 +5319,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00388-7</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDAGARD HLD</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.767623/2014-52</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0388.0054.002-1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t xml:space="preserve"> 3.8029.0006.001-1</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2025</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ALGAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4561,7 +5364,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -4579,17 +5382,57 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02781-6</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FORMICIDA - FORMI HOUSE</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.002-1</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALGAS MARINHAS + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4602,53 +5445,57 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02781-6</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FORMICIDA - FORMI HOUSE</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.663046/2014-34</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2781.0051.001-4</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t xml:space="preserve"> 3.8029.0006.003-8</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12/2029</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SERINGA DOSADORA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4661,17 +5508,57 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05685-4</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIFENTHRINE SPRAY</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.004-6</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4684,27 +5571,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05685-4</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIFENTHRINE SPRAY</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.365890/2017-86</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5685.0026.001-7</t>
+          <t xml:space="preserve"> 3.8029.0006.005-4</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4714,27 +5601,27 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2027</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA PAPEL CARTAO</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4747,17 +5634,57 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04549-9</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACQUA GENERA</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.006-2</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4770,57 +5697,57 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04549-9</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACQUA GENERA</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.654248/2019-54</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4549.0014.001-2</t>
+          <t xml:space="preserve"> 3.8029.0006.007-0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2030</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4833,17 +5760,57 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01282-6</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.008-9</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4856,27 +5823,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01282-6</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.121046/2007-97</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1282.0303.001-2</t>
+          <t xml:space="preserve"> 3.8029.0006.009-7</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4886,27 +5853,27 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2027</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
+          <t xml:space="preserve"> STYLLUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4919,27 +5886,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01282-6</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.782809/2018-23</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1282.0059.003-3</t>
+          <t xml:space="preserve"> 3.8029.0006.010-0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4949,27 +5916,27 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> STYLLUS + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4982,17 +5949,57 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.011-9</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIOLETA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -5005,53 +6012,57 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> PRODAN - DETERGENTES SANEANTES E ADITIVOS ESPECIAIS EIRELI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.10526-1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA - PRODAN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.444189/2013-97</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2183.0025.001-2</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr"/>
+          <t xml:space="preserve"> 3.8029.0006.012-7</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> VIOLETA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -5064,53 +6075,57 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.04819-1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> NEENWAY</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.444189/2013-97</t>
+          <t xml:space="preserve"> 25351.922841/2021-53</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2183.0025.002-0</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr"/>
+          <t xml:space="preserve"> 3.0526.0001.001-4</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + FILME PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5123,33 +6138,42 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.04819-1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> NEENWAY</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.444189/2013-97</t>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 000</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+          <t xml:space="preserve"> 3.4819.0140.001-5</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALÃO PLÁSTICO + FILME PLÁSTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5159,12 +6183,12 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5177,17 +6201,57 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.04819-1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.002-3</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5200,33 +6264,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.03193-1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.001-8</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr"/>
+          <t xml:space="preserve"> 3.4819.0140.003-1</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5236,17 +6304,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5259,48 +6327,52 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.03193-1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.002-6</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr"/>
+          <t xml:space="preserve"> 3.3193.0033.001-0</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5318,48 +6390,52 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.03193-1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.003-4</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr"/>
+          <t xml:space="preserve"> 3.3193.0033.002-9</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -5377,48 +6453,52 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.03557-0</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.004-2</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr"/>
+          <t xml:space="preserve"> 3.3193.0033.003-7</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO (PET) +CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> TAMBOR PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -5436,17 +6516,57 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MACKERDUZ INDUSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02769-6</t>
+          <t xml:space="preserve"> 3.03557-0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIRA MOFO E LIMO - ESFRE BOM</t>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.001-1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5459,42 +6579,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MACKERDUZ INDUSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02769-6</t>
+          <t xml:space="preserve"> 3.03557-0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIRA MOFO E LIMO - ESFRE BOM</t>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.291663/2018-10</t>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2769.0010.001-9</t>
+          <t xml:space="preserve"> 3.3557.0049.002-1</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2028</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5504,12 +6624,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5522,1793 +6642,57 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04479-7</t>
+          <t xml:space="preserve"> 3.03557-0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04479-7</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.190749/2021-13</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4479.0006.001-6</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190731/2021-11</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0048.003-2</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS SUPER + FRASCO + FILME PLASTICO</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04479-7</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.190749/2021-13</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4479.0006.002-4</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS STONE + FRASCO + FILME PLASTICO</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04479-7</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.190749/2021-13</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4479.0006.003-2</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS + FRASCO + FILME PLASTICO</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEW CLEAN IND. E COM. DE PRODUTOS DE HIGIENE E LIMPEZA LTDA</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03867-1</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PREMIUM CLOR ALVEJANTE/DESINFETANTE PÓ</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEW CLEAN IND. E COM. DE PRODUTOS DE HIGIENE E LIMPEZA LTDA</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03867-1</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PREMIUM CLOR ALVEJANTE/DESINFETANTE PÓ</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.885106/2021-51</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3867.0012.001-1</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> . + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 12 Meses</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Oleak Indústria e Comércio Ltda</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01003-2</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SCOTT HIGIENIZADOR DE ASSENTOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Oleak Indústria e Comércio Ltda</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.01003-2</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SCOTT HIGIENIZADOR DE ASSENTOS</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.584880/2012-91</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.1003.0099.001-7</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 07/2028</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SACO PLASTICO</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.465788/2020-07</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0005.001-6</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.465788/2020-07</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0005.002-4</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.001-1</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ALGAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.002-1</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ALGAS MARINHAS + GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.003-8</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.004-6</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.005-4</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.006-2</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.007-0</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.008-9</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.009-7</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> STYLLUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.010-0</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> STYLLUS + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.011-9</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VIOLETA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.08029-8</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.8029.0006.012-7</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VIOLETA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODAN - DETERGENTES SANEANTES E ADITIVOS ESPECIAIS EIRELI</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.10526-1</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA - PRODAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODAN - DETERGENTES SANEANTES E ADITIVOS ESPECIAIS EIRELI</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.10526-1</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA - PRODAN</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.922841/2021-53</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.0526.0001.001-4</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04819-1</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEENWAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04819-1</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEENWAY</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.180015/2021-26</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4819.0140.001-5</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04819-1</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEENWAY</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.180015/2021-26</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4819.0140.002-3</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.04819-1</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NEENWAY</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.180015/2021-26</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.4819.0140.003-1</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01/2032</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 24 Meses</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03193-1</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03193-1</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269699/2018-17</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3193.0033.001-0</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03193-1</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269699/2018-17</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3193.0033.002-9</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
-</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.03193-1</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 25351.269699/2018-17</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.3193.0033.003-7</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 08/2028</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TAMBOR PLASTICO OPACO</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 Meses</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>

--- a/2022_09_12_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
+++ b/2022_09_12_query/RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,21 +433,6 @@
 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AJX COMERCIO LTDA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.09132-9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WATER CLOR MULTI</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -458,17 +443,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
+          <t xml:space="preserve"> AJX COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06485-0</t>
+          <t xml:space="preserve"> 3.09132-9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALPHA DESINCRUST</t>
+          <t xml:space="preserve"> WATER CLOR MULTI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -647,17 +632,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> ALPHA CENTAURO QUIMICA LTDA ME</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02109-6</t>
+          <t xml:space="preserve"> 3.06485-0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
+          <t xml:space="preserve"> ALPHA DESINCRUST</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1214,17 +1199,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
+          <t xml:space="preserve"> ASA INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10109-1</t>
+          <t xml:space="preserve"> 3.02109-6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAXIFORM</t>
+          <t xml:space="preserve"> LAVA ROUPAS INVICTO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1403,17 +1388,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
+          <t xml:space="preserve"> ATP CLEAN AMERICA LATINA INDUSTRIA E COMÉRCIO DE SANEANTES LTDA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01635-6</t>
+          <t xml:space="preserve"> 3.10109-1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
+          <t xml:space="preserve"> MAXIFORM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1655,17 +1640,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
+          <t xml:space="preserve"> ATREVIDA COMERCIO DE PRODUTOS DE LIMPEZA LTDA-ME</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01606-6</t>
+          <t xml:space="preserve"> 3.01635-6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
+          <t xml:space="preserve"> PEDRA SANITÁRIA PUBLIC 25G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1781,27 +1766,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOCLEAN - COMÉRCIO E INDÚSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04186-4</t>
+          <t xml:space="preserve"> 3.01606-6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alcaclean</t>
+          <t xml:space="preserve"> F3 FULMIPRAG FENDAS E FRESTAS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.171789/2013-74</t>
+          <t xml:space="preserve"> 25351.135234/2007-01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1606.0090.003-3</t>
+          <t xml:space="preserve"> 3.1606.0081.001-8</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1811,12 +1796,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2028</t>
+          <t xml:space="preserve"> 07/2027</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACO</t>
+          <t xml:space="preserve"> LATA AEROSSOL</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1826,12 +1811,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1829,57 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biomaxx Industria e comercio Ltda</t>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09382-2</t>
+          <t xml:space="preserve"> 3.01606-6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Detergente clorado gel Klean Clor</t>
+          <t xml:space="preserve"> BLOCKMOLL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.879027/2021-10</t>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4186.0020.001-3</t>
+          <t xml:space="preserve"> 3.1606.0090.001-7</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2028</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alcaclean + BOMBONA PLASTICA + FILME PLASTICO</t>
+          <t xml:space="preserve"> SACHET</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1907,27 +1892,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.01606-6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> BLOCKMOLL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.174269/2021-13</t>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9382.0006.001-6</t>
+          <t xml:space="preserve"> 3.1606.0090.002-5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1937,27 +1922,27 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2028</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Detergente clorado gel Klean Clor + BOMBONA PLASTICA OPACA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> SACO PLASTICO</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -1970,27 +1955,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> BEQUISA INDÚSTRIA QUÍMICA DO BRASIL LTDA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.01606-6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> BLOCKMOLL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885128/2021-11</t>
+          <t xml:space="preserve"> 25351.171789/2013-74</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0511.0001.001-7</t>
+          <t xml:space="preserve"> 3.1606.0090.003-3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2000,27 +1985,27 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2028</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> SACO</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3209016 MOLUSCICIDA</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2033,32 +2018,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
+          <t xml:space="preserve"> BIOCLEAN - COMÉRCIO E INDÚSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10511-8</t>
+          <t xml:space="preserve"> 3.04186-4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
+          <t xml:space="preserve"> Alcaclean</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885128/2021-11</t>
+          <t xml:space="preserve"> 25351.879027/2021-10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0511.0001.002-5</t>
+          <t xml:space="preserve"> 3.4186.0020.001-3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2068,17 +2053,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Alcaclean + BOMBONA PLASTICA + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2096,27 +2081,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAZIL QUÍMICA - INDUSTRIA QUÍMICA LTDA.</t>
+          <t xml:space="preserve"> Biomaxx Industria e comercio Ltda</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02856-6</t>
+          <t xml:space="preserve"> 3.09382-2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EXTERMINEITOR BLOCO</t>
+          <t xml:space="preserve"> Detergente clorado gel Klean Clor</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885128/2021-11</t>
+          <t xml:space="preserve"> 25351.174269/2021-13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0511.0001.003-3</t>
+          <t xml:space="preserve"> 3.9382.0006.001-6</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2131,7 +2116,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Detergente clorado gel Klean Clor + BOMBONA PLASTICA OPACA + FILME DE POLIETILENO</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2141,7 +2126,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2159,32 +2144,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CALLAMARYS INDUSTRIA E COMERCIO DE COSMETICOS E SANEANTES LTDA</t>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05881-1</t>
+          <t xml:space="preserve"> 3.10511-8</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL TUPI 70° INPM</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.879141/2021-31</t>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2856.0035.001-9</t>
+          <t xml:space="preserve"> 3.0511.0001.001-7</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2194,17 +2179,17 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2222,27 +2207,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.10511-8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.541605/2014-28</t>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5881.0001.005-0</t>
+          <t xml:space="preserve"> 3.0511.0001.002-5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2252,27 +2237,27 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2029</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLASTICO TRANSLUCIDO 500ML+CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2285,32 +2270,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> BRAZ CHEMICAL IND. E COM. DE PRODUTOS DE LIMPEZA LTDA EPP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.10511-8</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA ÚNICO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.885128/2021-11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.001-4</t>
+          <t xml:space="preserve"> 3.0511.0001.003-3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2320,17 +2305,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 KG + SACO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2348,27 +2333,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> BRAZIL QUÍMICA - INDUSTRIA QUÍMICA LTDA.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.02856-6</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> EXTERMINEITOR BLOCO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.879141/2021-31</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.002-2</t>
+          <t xml:space="preserve"> 3.2856.0035.001-9</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2383,7 +2368,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FILME DE POLIETILENO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2393,7 +2378,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3207013 RATICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2411,42 +2396,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
+          <t xml:space="preserve"> CALLAMARYS INDUSTRIA E COMERCIO DE COSMETICOS E SANEANTES LTDA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.09286-1</t>
+          <t xml:space="preserve"> 3.05881-1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
+          <t xml:space="preserve"> ÁLCOOL TUPI 70° INPM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.866893/2021-32</t>
+          <t xml:space="preserve"> 25351.541605/2014-28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.003-0</t>
+          <t xml:space="preserve"> 3.5881.0001.005-0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 11/2029</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO PLASTICO TRANSLUCIDO 500ML+CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2456,12 +2441,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 332 REG. SANEANTES - Nova Embalagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2479,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.004-9</t>
+          <t xml:space="preserve"> 3.9286.0013.001-4</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2509,7 +2494,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> 1 KG + SACO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2557,7 +2542,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.005-7</t>
+          <t xml:space="preserve"> 3.9286.0013.002-2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2572,7 +2557,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> 7 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2600,17 +2585,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2620,7 +2605,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.9286.0013.006-5</t>
+          <t xml:space="preserve"> 3.9286.0013.003-0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2635,7 +2620,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> 10 KG + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2663,57 +2648,57 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111595/2020-21</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5520.0005.001-7</t>
+          <t xml:space="preserve"> 3.9286.0013.004-9</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> 40 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2726,57 +2711,57 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05520-3</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111595/2020-21</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5520.0005.002-5</t>
+          <t xml:space="preserve"> 3.9286.0013.005-7</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> 45 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2789,57 +2774,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> CHEMIE SAÚDE AMBIENTAL LTDA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.09286-1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> HIPOCLORITO DE CÁLCIO HYPO CLEAR</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.111595/2020-21</t>
+          <t xml:space="preserve"> 25351.866893/2021-32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5520.0005.003-3</t>
+          <t xml:space="preserve"> 3.9286.0013.006-5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> 50 KG + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
+          <t xml:space="preserve"> 3205045 DESINFETANTE PARA PISCINAS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -2852,27 +2837,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.05520-3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922891/2021-31</t>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2661.0303.001-1</t>
+          <t xml:space="preserve"> 3.5520.0005.001-7</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2882,27 +2867,27 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2030</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2915,27 +2900,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02661-1</t>
+          <t xml:space="preserve"> 3.05520-3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922891/2021-31</t>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2661.0303.002-8</t>
+          <t xml:space="preserve"> 3.5520.0005.002-5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2945,27 +2930,27 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2030</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -2978,27 +2963,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUROMARKET COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP</t>
+          <t xml:space="preserve"> Clareza Produtos de limpeza Ltda</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02216-5</t>
+          <t xml:space="preserve"> 3.05520-3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SANI-CLOTH HB PDI</t>
+          <t xml:space="preserve"> DESENGRAXANTE CL-10 CLAREZA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922891/2021-31</t>
+          <t xml:space="preserve"> 25351.111595/2020-21</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2661.0303.003-6</t>
+          <t xml:space="preserve"> 3.5520.0005.003-3</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3008,27 +2993,27 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 06/2030</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Versão única + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3103084 DESENGRAXANTE</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -3041,53 +3026,57 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.02661-1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.021856/00-51</t>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2216.0001.001-7</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t xml:space="preserve"> 3.2661.0303.001-1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2005</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ENVELOPE DE ALUMINIO E POLIETILENO</t>
+          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3100,32 +3089,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.02661-1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.001-9</t>
+          <t xml:space="preserve"> 3.2661.0303.002-8</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3135,17 +3124,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> Versão única + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3163,32 +3152,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> DIVERSEY BRASIL INDUSTRIA QUIMICA LTDA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.02661-1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> Diverclean Xtreme Acid</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.922891/2021-31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.002-7</t>
+          <t xml:space="preserve"> 3.2661.0303.003-6</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3198,17 +3187,17 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> Versão única + ACONDICIONAMENTO NAO PREVISTO NA TABELA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3203018 DETERGENTE PROFISSIONAL DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3226,57 +3215,53 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
+          <t xml:space="preserve"> EUROMARKET COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA EPP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03964-5</t>
+          <t xml:space="preserve"> 3.02216-5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Água Sanitária Petit</t>
+          <t xml:space="preserve"> SANI-CLOTH HB PDI</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.897597/2021-83</t>
+          <t xml:space="preserve"> 25351.021856/00-51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.003-5</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2216.0001.001-7</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 11/2005</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> ENVELOPE DE ALUMINIO E POLIETILENO</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 36 Meses</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3294,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.004-3</t>
+          <t xml:space="preserve"> 3.3964.0006.001-9</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3324,7 +3309,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3352,17 +3337,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3372,7 +3357,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3964.0006.005-1</t>
+          <t xml:space="preserve"> 3.3964.0006.002-7</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3387,7 +3372,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3415,32 +3400,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190825/2021-91</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0041.001-0</t>
+          <t xml:space="preserve"> 3.3964.0006.003-5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3450,17 +3435,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES + POTE DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3478,32 +3463,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04020-0</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190825/2021-91</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0041.002-9</t>
+          <t xml:space="preserve"> 3.3964.0006.004-3</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3513,17 +3498,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3541,32 +3526,32 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
+          <t xml:space="preserve"> FANNY SILVANA DA SILVA PETIT LTDA - ME</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.06960-0</t>
+          <t xml:space="preserve"> 3.03964-5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TOP LAV CLOR</t>
+          <t xml:space="preserve"> Água Sanitária Petit</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190825/2021-91</t>
+          <t xml:space="preserve"> 25351.897597/2021-83</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4020.0041.003-7</t>
+          <t xml:space="preserve"> 3.3964.0006.005-1</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3576,17 +3561,17 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3604,42 +3589,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04309-0</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEALCLOR</t>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.023264/2019-09</t>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.6960.0011.001-8</t>
+          <t xml:space="preserve"> 3.4020.0041.001-0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 05/2024</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HIG DRY WIPES + POTE DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3649,12 +3634,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3667,32 +3652,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04309-0</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IDEALCLOR</t>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711489/2021-22</t>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4309.0009.001-8</t>
+          <t xml:space="preserve"> 3.4020.0041.002-9</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3702,17 +3687,17 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3730,32 +3715,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> HIGEX - INDÚSTRIA E COMÉRCIO DE PRODUTOS SANEANTES LTDA - EPP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00415-1</t>
+          <t xml:space="preserve"> 3.04020-0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEXSPAR PL</t>
+          <t xml:space="preserve"> HIG DRY WIPES</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.711489/2021-22</t>
+          <t xml:space="preserve"> 25351.190825/2021-91</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4309.0009.002-6</t>
+          <t xml:space="preserve"> 3.4020.0041.003-7</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3765,17 +3750,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> HIG DRY WIPES + BALDE PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205053 DESINFETANTE PARA INDÚSTRIA ALIMENTÍCIA E AFINS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3793,27 +3778,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
+          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00415-1</t>
+          <t xml:space="preserve"> 3.06960-0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TEXSPAR PL</t>
+          <t xml:space="preserve"> TOP LAV CLOR</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.244658/2010-01</t>
+          <t xml:space="preserve"> 25351.023261/2019-67</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0415.0200.001-9</t>
+          <t xml:space="preserve"> 3.6960.0010.001-2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3823,22 +3808,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2025</t>
+          <t xml:space="preserve"> 05/2024</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BALDE PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3856,48 +3841,52 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
+          <t xml:space="preserve"> Higiemaster Sul Industria e Comércio de Saneantes - Eireli-ME</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03581-1</t>
+          <t xml:space="preserve"> 3.06960-0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DECAPAN LM 220 SUPER</t>
+          <t xml:space="preserve"> TOP LAV</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.397586/2013-17</t>
+          <t xml:space="preserve"> 25351.023264/2019-09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0415.0213.002-8</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
+          <t xml:space="preserve"> 3.6960.0011.001-8</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 09/2028</t>
+          <t xml:space="preserve"> 05/2024</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + BANDEJA DE PAPELAO COM INVOLUCRO PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3915,27 +3904,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
+          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00388-7</t>
+          <t xml:space="preserve"> 3.04309-0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDAGARD HLD</t>
+          <t xml:space="preserve"> IDEALCLOR</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.416124/2020-14</t>
+          <t xml:space="preserve"> 25351.711489/2021-22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3581.0042.001-7</t>
+          <t xml:space="preserve"> 3.4309.0009.001-8</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3945,27 +3934,27 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2030</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103055 DETERGENTE LIMPA PISOS</t>
+          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -3978,53 +3967,57 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
+          <t xml:space="preserve"> IDEAL QUIMICA INDUSTRIA DE DETERGENTES LTDA - ME</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.00388-7</t>
+          <t xml:space="preserve"> 3.04309-0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INDAGARD HLD</t>
+          <t xml:space="preserve"> IDEALCLOR</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.767623/2014-52</t>
+          <t xml:space="preserve"> 25351.711489/2021-22</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0388.0054.001-1</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t xml:space="preserve"> 3.4309.0009.002-6</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2025</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> NÃO APRESENTA + BOMBONA PLASTICA OPACA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+          <t xml:space="preserve"> 3222046 SANITIZANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -4037,38 +4030,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02781-6</t>
+          <t xml:space="preserve"> 3.00415-1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FORMICIDA - FORMI HOUSE</t>
+          <t xml:space="preserve"> TEXSPAR PL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.767623/2014-52</t>
+          <t xml:space="preserve"> 25351.244658/2010-01</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0388.0054.002-1</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t xml:space="preserve"> 3.0415.0200.001-9</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2025</t>
+          <t xml:space="preserve"> 08/2025</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BALDE PLASTICO</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4078,12 +4075,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
+          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4096,53 +4093,57 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.05685-4</t>
+          <t xml:space="preserve"> 3.00415-1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIFENTHRINE SPRAY</t>
+          <t xml:space="preserve"> TEXSPAR PL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.663046/2014-34</t>
+          <t xml:space="preserve"> 25351.244658/2010-01</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2781.0051.001-4</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t xml:space="preserve"> 3.0415.0200.002-7</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12/2029</t>
+          <t xml:space="preserve"> 08/2025</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SERINGA DOSADORA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
+          <t xml:space="preserve"> 4300213 DETERGENTE PARA USO ESPECÍFICO</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4155,52 +4156,48 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04549-9</t>
+          <t xml:space="preserve"> 3.00415-1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACQUA GENERA</t>
+          <t xml:space="preserve"> LETAH MAX</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.365890/2017-86</t>
+          <t xml:space="preserve"> 25351.397586/2013-17</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.5685.0026.001-7</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0415.0213.001-1</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2027</t>
+          <t xml:space="preserve"> 09/2028</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA PAPEL CARTAO</t>
+          <t xml:space="preserve"> BALDE</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4218,52 +4215,48 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> INDEBA INDÚSTRIA E COMÉRCIO LTDA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01282-6</t>
+          <t xml:space="preserve"> 3.00415-1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+          <t xml:space="preserve"> LETAH MAX</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.654248/2019-54</t>
+          <t xml:space="preserve"> 25351.397586/2013-17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4549.0014.001-2</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.0415.0213.002-8</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2030</t>
+          <t xml:space="preserve"> 09/2028</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + BANDEJA DE PAPELAO COM INVOLUCRO PLASTICO</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4281,42 +4274,42 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
+          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01282-6</t>
+          <t xml:space="preserve"> 3.03581-1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
+          <t xml:space="preserve"> DECAPAN LM 220 SUPER</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.121046/2007-97</t>
+          <t xml:space="preserve"> 25351.180828/2019-00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1282.0303.001-2</t>
+          <t xml:space="preserve"> 3.3581.0035.001-9</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2027</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4326,12 +4319,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -4344,37 +4337,37 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> INDÚSTRIA DE PRODUTOS DE LIMPEZA D SUPER LTDA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.03581-1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> DECAPAN LIMPA PISOS SUPER</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.782809/2018-23</t>
+          <t xml:space="preserve"> 25351.416124/2020-14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1282.0059.003-3</t>
+          <t xml:space="preserve"> 3.3581.0042.001-7</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2029</t>
+          <t xml:space="preserve"> 11/2030</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4389,12 +4382,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3103055 DETERGENTE LIMPA PISOS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -4407,53 +4400,53 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.00388-7</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> INDAGARD HLD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.444189/2013-97</t>
+          <t xml:space="preserve"> 25351.767623/2014-52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2183.0025.001-2</t>
+          <t xml:space="preserve"> 3.0388.0054.001-1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2025</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4466,53 +4459,53 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
+          <t xml:space="preserve"> INNOVATIVE WATER CARE INDUSTRIA E COMERCIO DE PRODUTOS QUIMICOS BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02183-0</t>
+          <t xml:space="preserve"> 3.00388-7</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
+          <t xml:space="preserve"> INDAGARD HLD</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.444189/2013-97</t>
+          <t xml:space="preserve"> 25351.767623/2014-52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2183.0025.002-0</t>
+          <t xml:space="preserve"> 3.0388.0054.002-1</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2025</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + FILME PLASTICO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2 Ano(s)</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 4300212 DESINFETANTE DE ALTO NÍVEL</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -4525,33 +4518,42 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.02781-6</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> FORMICIDA - FORMI HOUSE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.444189/2013-97</t>
+          <t xml:space="preserve"> 25351.020099/2004-49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 000</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t xml:space="preserve"> 3.2781.0006.001-9</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 06/2029</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALÃO PLÁSTICO + FILME PLÁSTICO</t>
+          <t xml:space="preserve"> SERINGA PLASTICA</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4561,12 +4563,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -4579,53 +4581,57 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.02781-6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> FORMIX</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.076951/2014-03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.001-8</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t xml:space="preserve"> 3.2781.0047.001-2</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SERINGA PLASTICA + CAIXA DE CARTOLINA</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -4638,53 +4644,57 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.02781-6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> FORMIX</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.076951/2014-03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.002-6</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t xml:space="preserve"> 3.2781.0047.002-0</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 05/2029</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> SACHET + CAIXA DE CARTOLINA</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -4697,53 +4707,53 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
+          <t xml:space="preserve"> INSETIMAX INDUSTRIA QUIMICA EIRELI</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01540-7</t>
+          <t xml:space="preserve"> 3.02781-6</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
+          <t xml:space="preserve"> D´FIM GEL FORMICIDA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.663046/2014-34</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.003-4</t>
+          <t xml:space="preserve"> 3.2781.0051.001-4</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 12/2029</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
+          <t xml:space="preserve"> SERINGA DOSADORA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3206025 INSETICIDA PARA EMPRESAS ESPECIALIZADAS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 330 REG. SANEANTES - Modificação de Fórmula de Produto</t>
         </is>
       </c>
     </row>
@@ -4756,48 +4766,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MACKERDUZ INDUSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
+          <t xml:space="preserve"> INTERFINA AGROQUIMICA LTDA-EPP</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.02769-6</t>
+          <t xml:space="preserve"> 3.05685-4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TIRA MOFO E LIMO - ESFRE BOM</t>
+          <t xml:space="preserve"> BIFENTHRINE SPRAY</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.122080/2015-15</t>
+          <t xml:space="preserve"> 25351.365890/2017-86</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1540.0027.004-2</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t xml:space="preserve"> 3.5685.0026.001-7</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06/2026</t>
+          <t xml:space="preserve"> 08/2027</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO (PET) +CAIXA DE PAPELÃO</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA PAPEL CARTAO</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3206017 INSETICIDA DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4815,57 +4829,57 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04479-7</t>
+          <t xml:space="preserve"> 3.04549-9</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+          <t xml:space="preserve"> ACQUA GENERA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.291663/2018-10</t>
+          <t xml:space="preserve"> 25351.600810/2019-20</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.2769.0010.001-9</t>
+          <t xml:space="preserve"> 3.4549.0013.001-7</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11/2028</t>
+          <t xml:space="preserve"> 01/2030</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Meses</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4878,27 +4892,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04479-7</t>
+          <t xml:space="preserve"> 3.04549-9</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+          <t xml:space="preserve"> LAZ CLORO</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190749/2021-13</t>
+          <t xml:space="preserve"> 25351.600825/2019-98</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4479.0006.001-6</t>
+          <t xml:space="preserve"> 3.4549.0012.001-1</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4908,27 +4922,27 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 01/2030</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS SUPER + FRASCO + FILME PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Meses</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -4941,27 +4955,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
+          <t xml:space="preserve"> LAZA BIOTECNOLOGIA DO BRASIL LTDA.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04479-7</t>
+          <t xml:space="preserve"> 3.04549-9</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
+          <t xml:space="preserve"> ACQUA PLUS</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190749/2021-13</t>
+          <t xml:space="preserve"> 25351.654248/2019-54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4479.0006.002-4</t>
+          <t xml:space="preserve"> 3.4549.0014.001-2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4971,27 +4985,27 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 01/2030</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS STONE + FRASCO + FILME PLASTICO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Meses</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3211051 DESINFETANTE DE ÁGUA PARA CONSUMO HUMANO</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -5004,57 +5018,57 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NEW CLEAN IND. E COM. DE PRODUTOS DE HIGIENE E LIMPEZA LTDA</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03867-1</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PREMIUM CLOR ALVEJANTE/DESINFETANTE PÓ</t>
+          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190749/2021-13</t>
+          <t xml:space="preserve"> 25351.121046/2007-97</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4479.0006.003-2</t>
+          <t xml:space="preserve"> 3.1282.0303.001-2</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 07/2027</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS + FRASCO + FILME PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -5067,42 +5081,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oleak Indústria e Comércio Ltda</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.01003-2</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SCOTT HIGIENIZADOR DE ASSENTOS</t>
+          <t xml:space="preserve"> AGUA SANITARIA SMART</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.885106/2021-51</t>
+          <t xml:space="preserve"> 25351.121046/2007-97</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3867.0012.001-1</t>
+          <t xml:space="preserve"> 3.1282.0303.002-0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 07/2027</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> . + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5112,12 +5126,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -5130,27 +5144,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA TUFF</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.584880/2012-91</t>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.1003.0099.001-7</t>
+          <t xml:space="preserve"> 3.1282.0059.001-7</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5160,27 +5174,27 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 07/2028</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SACO PLASTICO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -5193,27 +5207,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA TUFF</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.465788/2020-07</t>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0005.001-6</t>
+          <t xml:space="preserve"> 3.1282.0059.002-5</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5223,17 +5237,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5243,7 +5257,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -5256,27 +5270,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> LIMA &amp; PERGHER INDÚSTRIA E COMÉRCIO S/A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01282-6</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA TUFF</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.465788/2020-07</t>
+          <t xml:space="preserve"> 25351.782809/2018-23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0005.002-4</t>
+          <t xml:space="preserve"> 3.1282.0059.003-3</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5286,17 +5300,17 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 03/2029</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5306,7 +5320,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -5319,57 +5333,53 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.02183-0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.001-1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2183.0025.001-2</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALGAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSPARENTE + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -5382,57 +5392,53 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.02183-0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.002-1</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.2183.0025.002-0</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 08/2028</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALGAS MARINHAS + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO TRANSLUCIDO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 2 Ano(s)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -5445,42 +5451,33 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> LIMPIS INDUSTRIAL LTDA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.02183-0</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁLCOOL 70º INPM CRUZEIRO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.444189/2013-97</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.003-8</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 03/2031</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 000</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALÃO PLÁSTICO + FILME PLÁSTICO</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5490,12 +5487,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3205029 DESINFETANTE HOSPITALAR PARA SUPERFÍCIES FIXAS E ARTIGOS NÃO CRÍTICOS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 396 REG. SANEANTES - Alteração (Inclusão Ou Exclusão) de Fabricante</t>
         </is>
       </c>
     </row>
@@ -5508,57 +5505,53 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.004-6</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.1540.0027.001-8</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 06/2026</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -5571,57 +5564,53 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.005-4</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.1540.0027.002-6</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 06/2026</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -5634,57 +5623,53 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.006-2</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.1540.0027.003-4</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 06/2026</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> BOMBONA PLASTICA + ACONDICIONAMENTO NAO PREVISTO NA TABELA</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -5697,57 +5682,53 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> L.M. INDÚSTRIA, COMÉRCIO, IMPORTAÇÃO E EXPORTAÇÃO LTDA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.01540-7</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA POLITRIZ</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.122080/2015-15</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.007-0</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 3.1540.0027.004-2</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 06/2026</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO (PET) +CAIXA DE PAPELÃO</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 06 Meses</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -5760,27 +5741,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> MACKERDUZ INDUSTRIA DE PRODUTOS DE LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.02769-6</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> TIRA MOFO E LIMO - ESFRE BOM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.291663/2018-10</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.008-9</t>
+          <t xml:space="preserve"> 3.2769.0010.001-9</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5790,12 +5771,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 11/2028</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5810,7 +5791,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 392 REG. SANEANTES - Novo Prazo de Validade de Produto</t>
         </is>
       </c>
     </row>
@@ -5823,42 +5804,42 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.04479-7</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.009-7</t>
+          <t xml:space="preserve"> 3.4479.0006.001-6</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> STYLLUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS SUPER + FRASCO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5868,12 +5849,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5886,42 +5867,42 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.04479-7</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.010-0</t>
+          <t xml:space="preserve"> 3.4479.0006.002-4</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> STYLLUS + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS STONE + FRASCO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5931,12 +5912,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -5949,42 +5930,42 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+          <t xml:space="preserve"> MEGA MIX INDUSTRIA E COMERCIO LTDA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.08029-8</t>
+          <t xml:space="preserve"> 3.04479-7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MASTER CLEAN</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.190749/2021-13</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.011-9</t>
+          <t xml:space="preserve"> 3.4479.0006.003-2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VIOLETA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> LIMPA PEDRAS MIX PLUS + FRASCO + FILME PLASTICO</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5994,12 +5975,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -6012,57 +5993,57 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODAN - DETERGENTES SANEANTES E ADITIVOS ESPECIAIS EIRELI</t>
+          <t xml:space="preserve"> NEW CLEAN IND. E COM. DE PRODUTOS DE HIGIENE E LIMPEZA LTDA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.10526-1</t>
+          <t xml:space="preserve"> 3.03867-1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ÁGUA SANITÁRIA - PRODAN</t>
+          <t xml:space="preserve"> PREMIUM CLOR ALVEJANTE/DESINFETANTE PÓ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.583963/2020-39</t>
+          <t xml:space="preserve"> 25351.885106/2021-51</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.8029.0006.012-7</t>
+          <t xml:space="preserve"> 3.3867.0012.001-1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 03/2031</t>
+          <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VIOLETA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> . + BALDE PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 12 Meses</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+          <t xml:space="preserve"> 3222050 DESINFETANTE PARA ROUPAS HOSPITALARES</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
       </c>
     </row>
@@ -6075,27 +6056,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> Oleak Indústria e Comércio Ltda</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04819-1</t>
+          <t xml:space="preserve"> 3.01003-2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NEENWAY</t>
+          <t xml:space="preserve"> SCOTT HIGIENIZADOR DE ASSENTOS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.922841/2021-53</t>
+          <t xml:space="preserve"> 25351.584880/2012-91</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.0526.0001.001-4</t>
+          <t xml:space="preserve"> 3.1003.0099.001-7</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6105,27 +6086,27 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 07/2028</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> SACO PLASTICO</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
         </is>
       </c>
     </row>
@@ -6138,27 +6119,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04819-1</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NEENWAY</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.180015/2021-26</t>
+          <t xml:space="preserve"> 25351.465788/2020-07</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4819.0140.001-5</t>
+          <t xml:space="preserve"> 3.8029.0005.001-6</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6168,27 +6149,27 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6201,27 +6182,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.04819-1</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NEENWAY</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.180015/2021-26</t>
+          <t xml:space="preserve"> 25351.465788/2020-07</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4819.0140.002-3</t>
+          <t xml:space="preserve"> 3.8029.0005.002-4</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6231,27 +6212,27 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Meses</t>
+          <t xml:space="preserve"> 6 Meses</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6264,27 +6245,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03193-1</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.180015/2021-26</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.4819.0140.003-1</t>
+          <t xml:space="preserve"> 3.8029.0006.001-1</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6294,12 +6275,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ALGAS MARINHAS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6309,12 +6290,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6327,47 +6308,47 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03193-1</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269699/2018-17</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3193.0033.001-0</t>
+          <t xml:space="preserve"> 3.8029.0006.002-1</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+          <t xml:space="preserve"> ALGAS MARINHAS + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6377,7 +6358,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6390,47 +6371,47 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03193-1</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269699/2018-17</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3193.0033.002-9</t>
+          <t xml:space="preserve"> 3.8029.0006.003-8</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
+          <t xml:space="preserve"> EUCALIPTO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6440,7 +6421,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6453,47 +6434,47 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03557-0</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACIDCLEAN 570</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.269699/2018-17</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3193.0033.003-7</t>
+          <t xml:space="preserve"> 3.8029.0006.004-6</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/2028</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TAMBOR PLASTICO OPACO</t>
+          <t xml:space="preserve"> EUCALIPTO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6 Meses</t>
+          <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6503,7 +6484,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6516,42 +6497,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03557-0</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACIDCLEAN 570</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190725/2021-64</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3557.0049.001-1</t>
+          <t xml:space="preserve"> 3.8029.0006.005-4</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+          <t xml:space="preserve"> LAVANDA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6561,12 +6542,12 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6579,42 +6560,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.03557-0</t>
+          <t xml:space="preserve"> 3.08029-8</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACIDCLEAN 570</t>
+          <t xml:space="preserve"> MASTER CLEAN</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25351.190725/2021-64</t>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.3557.0049.002-1</t>
+          <t xml:space="preserve"> 3.8029.0006.006-2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01/2032</t>
+          <t xml:space="preserve"> 03/2031</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+          <t xml:space="preserve"> LAVANDA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6624,12 +6605,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
         </is>
       </c>
     </row>
@@ -6642,55 +6623,1189 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.007-0</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.008-9</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PINHO + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.009-7</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STYLLUS + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.010-0</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STYLLUS + GALAO PLASTICO + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.011-9</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIOLETA + FRASCO DE PLASTICO TRANSPARENTE + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OPMIL COMERCIO DE PRODUTOS DE LIMPEZA EIRELLI</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.08029-8</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MASTER CLEAN</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.583963/2020-39</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.8029.0006.012-7</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03/2031</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VIOLETA + GALAO PLASTICO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 335 REG. SANEANTES - Cancelamento de Registro de Produto a Pedido</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODAN - DETERGENTES SANEANTES E ADITIVOS ESPECIAIS EIRELI</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.10526-1</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ÁGUA SANITÁRIA - PRODAN</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.922841/2021-53</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.0526.0001.001-4</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3103033 ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04819-1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.001-5</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO SPRAY + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04819-1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.002-3</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO PLÁSTICO OPACO COM GATILHO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QUIMIWAY INDÚSTRIA QUIMICA LTDA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.04819-1</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEENWAY</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.180015/2021-26</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.4819.0140.003-1</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222019 JARDINAGEM AMADORA</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03193-1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3193.0033.001-0</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FRASCO DE PLASTICO OPACO + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03193-1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3193.0033.002-9</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOMBONA PLASTICA OPACA</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SENIR EMBALAGENS LTDA</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03193-1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLORO GEL BARBAREX</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.269699/2018-17</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3193.0033.003-7</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE VENDA LIVRE,PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08/2028</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TAMBOR PLASTICO OPACO</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 Meses</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3205061 DESINFETANTE PARA USO GERAL</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 389 REG. SANEANTES - Alteração de Rotulagem de Produto</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.03557-0</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t xml:space="preserve"> ACIDCLEAN 570</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.001-1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.002-1</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190725/2021-64</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0049.003-8</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACIDCLEAN 570 + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222029 DESINCRUSTANTE ÁCIDO</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t xml:space="preserve"> 25351.190731/2021-11</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0048.001-6</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + PRODUTO SOMENTE CONTEM EMBALAGEM PRIMARIA</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190731/2021-11</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.3557.0048.002-4</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01/2032</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + FILME DE POLIETILENO</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Meses</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RESOLUÇÃO-RE Nº 4.866, DE 30 DE DEZEMBRO DE 2021
+</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNICLEAN QUÍMICA INDUSTRIAL DO BRASIL LTDA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.03557-0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALCACLEAN 400</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25351.190731/2021-11</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3.3557.0048.003-2</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRODUTO DE USO PROFISSIONAL OU DE VENDA RESTRITA</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 01/2032</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t xml:space="preserve"> ALCACLEAN 400 + BOMBONA PLASTICA + CAIXA DE PAPELAO</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 24 Meses</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 3222030 DESINCRUSTANTE ALCALINO</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t xml:space="preserve"> 30020 REG. SANEANTES - Registro de produtos saneantes</t>
         </is>
